--- a/pilot2/pilot2_story_xlsx_files/41.xlsx
+++ b/pilot2/pilot2_story_xlsx_files/41.xlsx
@@ -193,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -206,11 +206,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -247,12 +242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -264,28 +259,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -299,7 +272,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -308,7 +281,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -317,28 +290,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -347,58 +335,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,59 +366,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,12 +420,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1550,687 +1489,681 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="5">
-        <v>3</v>
+      <c r="A2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>41</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12">
-        <v>2</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="B24" s="12">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="C33" s="9">
         <v>3</v>
       </c>
-      <c r="C25" s="13">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9">
         <v>3</v>
       </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="B28" s="12">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3</v>
-      </c>
-      <c r="C29" s="13">
-        <v>2</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="B30" s="12">
-        <v>3</v>
-      </c>
-      <c r="C30" s="13">
-        <v>3</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="B31" s="12">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="B32" s="12">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="B33" s="12">
-        <v>3</v>
-      </c>
-      <c r="C33" s="13">
-        <v>3</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8">
         <v>4</v>
       </c>
-      <c r="C34" s="13">
-        <v>3</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="C35" s="13">
-        <v>3</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="C36" s="13">
-        <v>3</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="C37" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="13">
-        <v>4</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="B38" s="12">
-        <v>4</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
